--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="236">
   <si>
     <t>日期</t>
   </si>
@@ -1829,6 +1829,58 @@
   </si>
   <si>
     <t>logpath：log文件的路径，如果设置路径就在用户给定的路径下生成，如果设置“.”就在当前导入的文件所在的路径下生成，如果不设置不生成文件</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.ConvertFaceToProfile( face, out SheetObject);
+将输入的face转换成sweep用的profile</t>
+  </si>
+  <si>
+    <t>face: 输入的面</t>
+  </si>
+  <si>
+    <t>out SheetObject：生成的sweep用的profile</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改：
+AGM.Modelling.ConvertFaceToPath
+//AGM.Modelling.ConvertFaceToPath( face, out WireObject, bExternel = false )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增加了一个参数 bExternel，默认是false; bExternel = false，这个command会转换面上的所有loops创建一个线框体; bExternel = true，这个command只会转换面上的最外面的loop创建一个线框体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+新增：
+AGM.Modelling.ConvertFaceToProfile
+//AGM.Modelling.ConvertFaceToProfile( face, out SheetObject);
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\Sweep.js）
+将输入的face转换成sweep用的profile</t>
+    </r>
+  </si>
+  <si>
+    <t>bExternel：bool类型输入变量，默认是false; 
+bExternel = false，这个command会转换面上的所有loops创建一个线框体; bExternel = true，这个command只会转换面上的最外面的loop创建一个线框体</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.ConvertFaceToPath( face, out WireObject, bExternel = false )
+提取face的轮廓生成扫略路径
+范例:SweepCut_3.js</t>
   </si>
 </sst>
 </file>
@@ -2047,8 +2099,8 @@
       <xdr:rowOff>140805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>760757</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3770657</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>131293</xdr:rowOff>
     </xdr:to>
@@ -2124,7 +2176,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1629345</xdr:colOff>
+      <xdr:colOff>753045</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>357013</xdr:rowOff>
     </xdr:to>
@@ -2498,16 +2550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="116.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2806,7 +2858,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="144">
+    <row r="38" spans="1:2" ht="129.6">
       <c r="A38" s="1">
         <v>20190313</v>
       </c>
@@ -2828,6 +2880,14 @@
       </c>
       <c r="B40" s="3" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="144">
+      <c r="A41" s="1">
+        <v>20190327</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2838,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2850,7 +2910,7 @@
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
-    <col min="5" max="5" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="6" width="41.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" customWidth="1"/>
@@ -4261,12 +4321,12 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" ht="57.6">
+    <row r="78" spans="1:11" ht="86.4">
       <c r="A78" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>166</v>
@@ -4274,7 +4334,9 @@
       <c r="D78" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -4400,6 +4462,27 @@
       <c r="K83" s="5"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" ht="43.2">
+      <c r="A84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
   <si>
     <t>日期</t>
   </si>
@@ -341,10 +341,6 @@
   </si>
   <si>
     <t>AGM.Modelling.GetFaceExternalEdges</t>
-  </si>
-  <si>
-    <t>AGM.Modelling.GetBodyFaces(ModelObject)
-得到一个body上所有的面</t>
   </si>
   <si>
     <t>AGM.Modelling.GetFaceExternalEdges( face )
@@ -1881,6 +1877,14 @@
     <t>AGM.Modelling.ConvertFaceToPath( face, out WireObject, bExternel = false )
 提取face的轮廓生成扫略路径
 范例:SweepCut_3.js</t>
+  </si>
+  <si>
+    <t>array : 成功返回一组faces，失败返回null</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.GetBodyFaces(ModelObject)
+得到一个body上所有的面
+范例：set_entity_color.js</t>
   </si>
 </sst>
 </file>
@@ -2552,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2623,7 +2627,7 @@
         <v>20180707</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8">
@@ -2631,7 +2635,7 @@
         <v>20180714</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.2">
@@ -2639,7 +2643,7 @@
         <v>20180723</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8">
@@ -2647,7 +2651,7 @@
         <v>20180725</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72">
@@ -2655,7 +2659,7 @@
         <v>20181011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="100.8">
@@ -2663,7 +2667,7 @@
         <v>20181030</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="100.8">
@@ -2671,7 +2675,7 @@
         <v>20181031</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="100.8">
@@ -2679,15 +2683,15 @@
         <v>20181105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="57.6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.2">
       <c r="A16" s="1">
         <v>20181107</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="115.2">
@@ -2695,7 +2699,7 @@
         <v>20181129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="302.39999999999998">
@@ -2703,7 +2707,7 @@
         <v>20181205</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.2">
@@ -2711,15 +2715,15 @@
         <v>20181208</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="216">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="201.6">
       <c r="A20" s="1">
         <v>20181228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="115.2">
@@ -2727,7 +2731,7 @@
         <v>20181228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2">
@@ -2735,7 +2739,7 @@
         <v>20190213</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4">
@@ -2743,7 +2747,7 @@
         <v>20190221</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="100.8">
@@ -2751,7 +2755,7 @@
         <v>20190222</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="72">
@@ -2759,7 +2763,7 @@
         <v>20190227</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="115.2">
@@ -2767,7 +2771,7 @@
         <v>20190228</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="43.2">
@@ -2775,7 +2779,7 @@
         <v>20190312</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="43.2">
@@ -2783,7 +2787,7 @@
         <v>20190313</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8">
@@ -2791,7 +2795,7 @@
         <v>20190505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.8">
@@ -2799,23 +2803,23 @@
         <v>20190507</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="129.6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="115.2">
       <c r="A31" s="1">
         <v>20190524</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="230.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="216">
       <c r="A32" s="1">
         <v>20190527</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="216">
@@ -2823,7 +2827,7 @@
         <v>20190528</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="72">
@@ -2831,7 +2835,7 @@
         <v>20191009</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.2">
@@ -2839,7 +2843,7 @@
         <v>20191023</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="57.6">
@@ -2847,7 +2851,7 @@
         <v>20191208</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="57.6">
@@ -2855,7 +2859,7 @@
         <v>20191213</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="129.6">
@@ -2863,7 +2867,7 @@
         <v>20190313</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="100.8">
@@ -2871,7 +2875,7 @@
         <v>20190314</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="72">
@@ -2879,7 +2883,7 @@
         <v>20190318</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="144">
@@ -2887,7 +2891,7 @@
         <v>20190327</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2900,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2990,7 +2994,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -3002,7 +3006,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3012,10 +3016,10 @@
     </row>
     <row r="5" spans="1:11" ht="43.2">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -3027,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3037,10 +3041,10 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -3052,7 +3056,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -3065,7 +3069,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -3111,7 +3115,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
@@ -3320,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>32</v>
@@ -3336,12 +3340,12 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="43.2">
+    <row r="25" spans="1:11" ht="57.6">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>34</v>
@@ -3403,13 +3407,13 @@
     </row>
     <row r="28" spans="1:11" ht="43.2">
       <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3422,13 +3426,13 @@
     </row>
     <row r="29" spans="1:11" ht="57.6">
       <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -3444,10 +3448,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -3463,19 +3467,19 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3488,13 +3492,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3509,19 +3513,19 @@
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3534,25 +3538,25 @@
         <v>6</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -3563,19 +3567,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3588,13 +3592,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3609,24 +3613,24 @@
         <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -3636,19 +3640,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="F38" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3661,25 +3665,25 @@
         <v>6</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="F39" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="10"/>
@@ -3690,28 +3694,28 @@
         <v>6</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -3994,16 +3998,16 @@
         <v>6</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -4017,16 +4021,16 @@
         <v>6</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -4040,13 +4044,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -4061,10 +4065,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -4080,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4097,13 +4101,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4115,10 +4119,10 @@
     </row>
     <row r="68" spans="1:11" ht="57.6">
       <c r="A68" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>14</v>
@@ -4138,13 +4142,13 @@
     </row>
     <row r="69" spans="1:11" ht="43.2">
       <c r="A69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -4160,13 +4164,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4181,13 +4185,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -4199,16 +4203,16 @@
     </row>
     <row r="72" spans="1:11" ht="72">
       <c r="A72" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -4223,10 +4227,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4242,13 +4246,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4263,13 +4267,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -4284,13 +4288,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -4305,13 +4309,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4326,16 +4330,16 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -4349,13 +4353,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -4370,13 +4374,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -4391,16 +4395,16 @@
         <v>6</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="E81" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -4414,22 +4418,22 @@
         <v>6</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C82" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4441,19 +4445,19 @@
         <v>6</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="E83" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="F83" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -4468,13 +4472,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4510,63 +4514,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8">
       <c r="A5" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
         <v>194</v>
-      </c>
-      <c r="B6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="255">
   <si>
     <t>日期</t>
   </si>
@@ -1885,6 +1885,78 @@
     <t>AGM.Modelling.GetBodyFaces(ModelObject)
 得到一个body上所有的面
 范例：set_entity_color.js</t>
+  </si>
+  <si>
+    <t>text (string): 输入的文本</t>
+  </si>
+  <si>
+    <t>fontsize (double): 输入的字体大小</t>
+  </si>
+  <si>
+    <t>xlength\ylength (double): 用于限制字体轮廓的方框的长度和宽度（见下图）</t>
+  </si>
+  <si>
+    <t>target_origin (Position)\ target_x_axis (Vector)\target_y_axis (Vector): 定义了一个局部坐标系用来放置字体轮廓，xlength是方框在x轴的长度，ylength是方框在y轴的长度</t>
+  </si>
+  <si>
+    <t>out ModelObject: 输出的字体轮廓</t>
+  </si>
+  <si>
+    <t>wrap (bool) : 可不填，wrap默认为false。wrap = true和false的区别如下面两张图所示，这两张图除了wrap的值以前其他的参数一样。wrap = true的时候为了让字体轮廓充满方框，字体可能变形。</t>
+  </si>
+  <si>
+    <t>新增：
+1. AGM.Modelling.CreateTextSheet
+//AGM.Modelling.CreateTextSheet( text, fontname, fontsize, xlength, ylength, target_origin, target_x_axis, target_y_axis, wrap, out textObject)
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\planar_text.js, js_files\cylindrical_text.js）
+创建刻字轮廓
+2. AGM.Modelling.SweepByDist
+//AGM.Modelling.SweepByDist( in\out profile, distance, bothside )
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\planar_text.js, js_files\cylindrical_text.js）
+字体轮廓拉伸
+3. AGM.Modelling.IntersectHollowCylinder
+//AGM.Modelling.IntersectHollowCylinder( in\out Modelbody, bottom_position, top_position, max_radius, min_radius )
+（命令参数参考js_files\radf_init.js，命令使用参考js_files\cylindrical_text.js）
+用空心圆柱对字体轮廓进行裁剪，用于圆柱面刻字</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.CreateTextSheet( text, fontname, fontsize, xlength, ylength, target_origin, target_x_axis, target_y_axis, wrap, out ModelObject);
+创建刻字轮廓
+范例: planar_text.js, cylindrical_text.js</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.SweepByDist( in\out profile, distance, bothside );
+字体轮廓沿局部坐标系的z轴方向拉伸
+范例: planar_text.js, cylindrical_text.js</t>
+  </si>
+  <si>
+    <t>in\out profile (ModelObject) : 输入的字体轮廓</t>
+  </si>
+  <si>
+    <t>distance (double): 沿局部坐标系的z轴方向拉伸的长度</t>
+  </si>
+  <si>
+    <t>bothside (bool): 可以不填，默认是fasle，用来表示是否正负方向同时拉伸</t>
+  </si>
+  <si>
+    <t>fontname (string): 输入的字体名称</t>
+  </si>
+  <si>
+    <t>bottom_position (Position): 空心圆柱轴线的起点</t>
+  </si>
+  <si>
+    <t>top_position (Position): 空心圆柱轴线的终点</t>
+  </si>
+  <si>
+    <t>max_radius (double): 空心圆柱的外径</t>
+  </si>
+  <si>
+    <t>min_radius (double): 空心圆柱的内径，可不填，不填表示实心圆柱</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.IntersectHollowCylinder( in\out Modelbody, bottom_position, top_position, max_radius, min_radius );
+用空心圆柱对字体轮廓进行裁剪
+范例: cylindrical_text.js</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2214,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>957119</xdr:colOff>
+      <xdr:colOff>294511</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>2982</xdr:rowOff>
     </xdr:to>
@@ -2260,6 +2332,82 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1540771</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>32143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2015192</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>166889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124945" y="49270595"/>
+          <a:ext cx="5503621" cy="2361111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2525157</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>904048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2260474</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>48781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10138531" y="49228100"/>
+          <a:ext cx="6268639" cy="2285498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2554,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2864,7 +3012,7 @@
     </row>
     <row r="38" spans="1:2" ht="129.6">
       <c r="A38" s="1">
-        <v>20190313</v>
+        <v>20200313</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>220</v>
@@ -2872,7 +3020,7 @@
     </row>
     <row r="39" spans="1:2" ht="100.8">
       <c r="A39" s="1">
-        <v>20190314</v>
+        <v>20200314</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>226</v>
@@ -2880,7 +3028,7 @@
     </row>
     <row r="40" spans="1:2" ht="72">
       <c r="A40" s="1">
-        <v>20190318</v>
+        <v>20200318</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>227</v>
@@ -2888,10 +3036,18 @@
     </row>
     <row r="41" spans="1:2" ht="144">
       <c r="A41" s="1">
-        <v>20190327</v>
+        <v>20200327</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="201.6">
+      <c r="A42" s="1">
+        <v>20200416</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2902,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2916,8 +3072,9 @@
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="6" width="41.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="8" max="8" width="65.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4487,6 +4644,269 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="1:13" ht="86.4">
+      <c r="A85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" ht="57.6">
+      <c r="A100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+    </row>
+    <row r="101" spans="1:11" ht="72">
+      <c r="A101" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="257">
   <si>
     <t>日期</t>
   </si>
@@ -1925,11 +1925,6 @@
 范例: planar_text.js, cylindrical_text.js</t>
   </si>
   <si>
-    <t>AGM.Modelling.SweepByDist( in\out profile, distance, bothside );
-字体轮廓沿局部坐标系的z轴方向拉伸
-范例: planar_text.js, cylindrical_text.js</t>
-  </si>
-  <si>
     <t>in\out profile (ModelObject) : 输入的字体轮廓</t>
   </si>
   <si>
@@ -1957,6 +1952,48 @@
     <t>AGM.Modelling.IntersectHollowCylinder( in\out Modelbody, bottom_position, top_position, max_radius, min_radius );
 用空心圆柱对字体轮廓进行裁剪
 范例: cylindrical_text.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改：
+AGM.Modelling.SweepByDist
+//AGM.Modelling.SweepByDist( in\out profile, distance, bothside = false, draftangle = 0 )
+新增加了一个参数拔模角度draftangle.
+第三个参数bothside默认是false，第四个参数draftangle默认是0.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户如果要设置第四个参数draftangle，必须先设置第三个参数bothside.
+draftangle的输入参数是拔模角度，如果是正数，横截面沿着拉伸方向越来越小；如果是负数，横截面沿着拉伸方向越来越大
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（命令参数参考js_files\radf_init.js，命令使用参考js_files\planar_text.js）</t>
+    </r>
+  </si>
+  <si>
+    <t>AGM.Modelling.SweepByDist( in\out profile, distance, bothside = false, draftangle = 0 );
+字体轮廓沿局部坐标系的z轴方向拉伸
+范例: planar_text.js, cylindrical_text.js</t>
+  </si>
+  <si>
+    <t>draftangle (double): 
+拔模角度，默认为0
+用户如果要设置第四个参数draftangle，必须先设置第三个参数bothside.
+draftangle如果是正数，横截面沿着拉伸方向越来越小；如果是负数，横截面沿着拉伸方向越来越大</t>
   </si>
 </sst>
 </file>
@@ -2702,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3050,6 +3087,23 @@
         <v>243</v>
       </c>
     </row>
+    <row r="43" spans="1:2" ht="115.2">
+      <c r="A43" s="1">
+        <v>20200506</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3060,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="E93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3071,7 +3125,7 @@
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
     <col min="7" max="7" width="33.5546875" customWidth="1"/>
     <col min="8" max="8" width="65.6640625" customWidth="1"/>
     <col min="9" max="9" width="44.33203125" customWidth="1"/>
@@ -4656,7 +4710,7 @@
         <v>237</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>238</v>
@@ -4858,23 +4912,25 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" ht="57.6">
+    <row r="100" spans="1:11" ht="72">
       <c r="A100" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="E100" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F100" s="11"/>
+      <c r="F100" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -4886,22 +4942,22 @@
         <v>6</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D101" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="F101" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="G101" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
